--- a/biology/Botanique/Perunantutkimuslaitos/Perunantutkimuslaitos.xlsx
+++ b/biology/Botanique/Perunantutkimuslaitos/Perunantutkimuslaitos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Perunantutkimuslaitos (Institut de recherche sur la pomme de terre) est une station de recherche agronomique situé à Ylistaro en Finlande, 
 </t>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Spécialisé dans les recherches sur la pomme de terre, il dépend du MTT Centre de recherches agronomiques et agroalimentaires de Finlande), rattaché lui-même au ministère de l'Agriculture et des Forêts de Finlande. 
-L'Institut de recherche sur la pomme de terre était présent également jusqu'en février 2011 à la station de Lammi, près de Hämeenlinna (Finlande méridionale), avant de concentrer ses activités sur le site d'Ylistaro[1].
-Cet institut avait commencé à Lammi à collaborer avec l'entreprise chimique allemande BASF à la mise au point de la variété Amflora et d'autres pommes de terre féculières génétiquement modifiées, notamment en procédant en 2010 à des essais de la variété 'AM04/1020', servant de référence pour l'Amflora[2],[3].
+L'Institut de recherche sur la pomme de terre était présent également jusqu'en février 2011 à la station de Lammi, près de Hämeenlinna (Finlande méridionale), avant de concentrer ses activités sur le site d'Ylistaro.
+Cet institut avait commencé à Lammi à collaborer avec l'entreprise chimique allemande BASF à la mise au point de la variété Amflora et d'autres pommes de terre féculières génétiquement modifiées, notamment en procédant en 2010 à des essais de la variété 'AM04/1020', servant de référence pour l'Amflora,.
 </t>
         </is>
       </c>
